--- a/Module_24_HybridRediff/Files/PortfolioSuite.xlsx
+++ b/Module_24_HybridRediff/Files/PortfolioSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>SamplePort21</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Module_24_HybridRediff/Files/PortfolioSuite.xlsx
+++ b/Module_24_HybridRediff/Files/PortfolioSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>SamplePort21</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -566,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
